--- a/biology/Zoologie/Choanobionta/Choanobionta.xlsx
+++ b/biology/Zoologie/Choanobionta/Choanobionta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les choano-organismes constituent un taxon d'eucaryotes dont le caractère monophylétique est basé principalement par les analyses moléculaires de l'ARNr 18S.
 L'hypothèse de ce regroupement avait autrefois été émise sur la base de la ressemblance entre structures cellulaires des choanoflagellés et celle des choanocytes des éponges, puis abandonné au milieu du XXe siècle pour son aspect trop simpliste...
